--- a/data/raw/response_traits/data faltante_NZamora_original.xlsx
+++ b/data/raw/response_traits/data faltante_NZamora_original.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5640"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="139">
   <si>
     <t>familia</t>
   </si>
@@ -388,13 +388,58 @@
   </si>
   <si>
     <t>N.Zamora</t>
+  </si>
+  <si>
+    <t>APOCYNACEAE</t>
+  </si>
+  <si>
+    <t>Couma_macrocarpa</t>
+  </si>
+  <si>
+    <t>COUMMA</t>
+  </si>
+  <si>
+    <t>AN-A</t>
+  </si>
+  <si>
+    <t>RUBIACEAE</t>
+  </si>
+  <si>
+    <t>Guettarda_sp.</t>
+  </si>
+  <si>
+    <t>GUETSP</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>PODOCARPACEAE</t>
+  </si>
+  <si>
+    <t>Podocarpus_guatemalensis</t>
+  </si>
+  <si>
+    <t>PODOGU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AN </t>
+  </si>
+  <si>
+    <t>CLUSIACEAE</t>
+  </si>
+  <si>
+    <t>Tovomita_weddelliana</t>
+  </si>
+  <si>
+    <t>TOVOWE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,8 +478,20 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -468,6 +525,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -587,6 +650,16 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -1643,158 +1716,239 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="A33" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>103</v>
+      </c>
       <c r="G33" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75">
+      <c r="A54" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C54" s="14" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
-      <c r="A35" s="26" t="s">
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B55" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
-      <c r="A36" s="26"/>
-      <c r="B36" s="15" t="s">
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" s="26"/>
+      <c r="B56" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C56" s="16" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
-      <c r="A37" s="26"/>
-      <c r="B37" s="15" t="s">
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="A57" s="26"/>
+      <c r="B57" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C57" s="16" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15.75">
-      <c r="A38" s="26"/>
-      <c r="B38" s="15" t="s">
+    <row r="58" spans="1:4" ht="15.75">
+      <c r="A58" s="26"/>
+      <c r="B58" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D58" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
-      <c r="A39" s="26"/>
-      <c r="B39" s="15" t="s">
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" s="26"/>
+      <c r="B59" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C59" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
-      <c r="A40" s="27" t="s">
+    <row r="60" spans="1:4" ht="15.75">
+      <c r="A60" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C60" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="15.75">
-      <c r="A41" s="27"/>
-      <c r="B41" s="17" t="s">
+    <row r="61" spans="1:4" ht="15.75">
+      <c r="A61" s="27"/>
+      <c r="B61" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C61" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
-      <c r="A42" s="27"/>
-      <c r="B42" s="17" t="s">
+    <row r="62" spans="1:4" ht="15.75">
+      <c r="A62" s="27"/>
+      <c r="B62" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C62" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
-      <c r="A43" s="27"/>
-      <c r="B43" s="17" t="s">
+    <row r="63" spans="1:4" ht="15.75">
+      <c r="A63" s="27"/>
+      <c r="B63" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C63" s="18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="15.75">
-      <c r="A44" s="28" t="s">
+    <row r="64" spans="1:4" ht="15.75">
+      <c r="A64" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B64" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C64" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
-      <c r="A45" s="28"/>
-      <c r="B45" s="19" t="s">
+    <row r="65" spans="1:3" ht="15.75">
+      <c r="A65" s="28"/>
+      <c r="B65" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C65" s="20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
-      <c r="A46" s="28"/>
-      <c r="B46" s="19" t="s">
+    <row r="66" spans="1:3" ht="15.75">
+      <c r="A66" s="28"/>
+      <c r="B66" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
-      <c r="A47" s="28"/>
-      <c r="B47" s="19" t="s">
+    <row r="67" spans="1:3" ht="15.75">
+      <c r="A67" s="28"/>
+      <c r="B67" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C67" s="20" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A64:A67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/data/raw/response_traits/data faltante_NZamora_original.xlsx
+++ b/data/raw/response_traits/data faltante_NZamora_original.xlsx
@@ -641,6 +641,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -650,16 +660,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -990,128 +990,119 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="A2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="22" t="s">
+      <c r="F5" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>119</v>
+      <c r="F6" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>123</v>
@@ -1122,19 +1113,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>119</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G7" s="24" t="s">
         <v>123</v>
@@ -1142,22 +1133,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>119</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G8" s="24" t="s">
         <v>123</v>
@@ -1165,68 +1156,68 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>120</v>
       </c>
+      <c r="E9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="G9" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>120</v>
+      <c r="F11" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G11" s="24" t="s">
         <v>123</v>
@@ -1234,22 +1225,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>120</v>
+      <c r="F12" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G12" s="24" t="s">
         <v>123</v>
@@ -1257,206 +1248,206 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>53</v>
+      <c r="E21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>123</v>
@@ -1464,137 +1455,137 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>120</v>
+      <c r="E23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="G23" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="A24" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8" t="s">
+      <c r="F25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="12" t="s">
+      <c r="B26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>72</v>
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="G27" s="24" t="s">
         <v>123</v>
@@ -1605,206 +1596,221 @@
         <v>31</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F30" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="23" t="s">
+      <c r="G36" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="E37" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="E38" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="E39" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75">
@@ -1819,7 +1825,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="30" t="s">
         <v>89</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -1830,7 +1836,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75">
-      <c r="A56" s="26"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="15" t="s">
         <v>92</v>
       </c>
@@ -1839,7 +1845,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75">
-      <c r="A57" s="26"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="15" t="s">
         <v>94</v>
       </c>
@@ -1848,7 +1854,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75">
-      <c r="A58" s="26"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="15" t="s">
         <v>96</v>
       </c>
@@ -1860,7 +1866,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="15.75">
-      <c r="A59" s="26"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="15" t="s">
         <v>98</v>
       </c>
@@ -1869,7 +1875,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="31" t="s">
         <v>100</v>
       </c>
       <c r="B60" s="17" t="s">
@@ -1880,7 +1886,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75">
-      <c r="A61" s="27"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="17" t="s">
         <v>102</v>
       </c>
@@ -1889,7 +1895,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75">
-      <c r="A62" s="27"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="17" t="s">
         <v>104</v>
       </c>
@@ -1898,7 +1904,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.75">
-      <c r="A63" s="27"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="17" t="s">
         <v>105</v>
       </c>
@@ -1907,7 +1913,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="32" t="s">
         <v>107</v>
       </c>
       <c r="B64" s="19" t="s">
@@ -1918,7 +1924,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75">
-      <c r="A65" s="28"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="19" t="s">
         <v>110</v>
       </c>
@@ -1927,7 +1933,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75">
-      <c r="A66" s="28"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="19" t="s">
         <v>112</v>
       </c>
@@ -1936,7 +1942,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75">
-      <c r="A67" s="28"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="19" t="s">
         <v>113</v>
       </c>
@@ -1945,6 +1951,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G36">
+    <sortCondition ref="B2:B36"/>
+    <sortCondition ref="A2:A36"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="A60:A63"/>
